--- a/Python/ExampleHeadings.xlsx
+++ b/Python/ExampleHeadings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Documents\GitHub\IHMC-WaterBridge\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A78E230-7FEC-4078-984B-533A59B1FE86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58ADD11-6184-4B80-A8A6-80542537815B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{3B9D60CF-FAAA-4811-9870-6C32AF10BC30}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>requiredHeading</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>Turn</t>
+  </si>
+  <si>
+    <t>adjustedAngularDiff</t>
+  </si>
+  <si>
+    <t>Angular Difference</t>
+  </si>
+  <si>
+    <t>Motor Multiplier</t>
   </si>
 </sst>
 </file>
@@ -407,18 +416,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1499427-BE12-4BD7-8BA1-3DEF29577FDA}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -432,12 +442,9 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -453,16 +460,16 @@
         <v>-200</v>
       </c>
       <c r="D2" s="1">
-        <f>IF(ABS(C2) &gt; 0, C2)</f>
-        <v>-200</v>
-      </c>
-      <c r="E2" s="1">
-        <f t="shared" ref="E2:E5" si="0">IF(ABS(D2) &gt; 180,IF(D2&gt;=0, D2-180, D2+180), 0)</f>
-        <v>-20</v>
-      </c>
-      <c r="F2" s="1" t="str">
-        <f t="shared" ref="F2:F6" si="1">IF(E2&lt;&gt;0,IF(E2&gt;0,"Left","Right"),IF(A2&gt;B2,"Right","Left"))</f>
+        <f>IF(ABS(C2) &gt; 180,IF(C2&gt;=0, C2-360, C2+360), 0)</f>
+        <v>160</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f t="shared" ref="E2:E7" si="0">IF(D2&lt;&gt;0,IF(D2&gt;0,"Right","Left"),IF(A2&gt;B2,"Right","Left"))</f>
         <v>Right</v>
+      </c>
+      <c r="F2" s="1">
+        <f>ABS(D2/180)</f>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -473,20 +480,20 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C7" si="2">A3-B3</f>
+        <f t="shared" ref="C3:C7" si="1">A3-B3</f>
         <v>180</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D7" si="3">IF(ABS(C3) &gt; 0, C3)</f>
-        <v>180</v>
-      </c>
-      <c r="E3" s="1">
+        <f t="shared" ref="D3:D7" si="2">IF(ABS(C3) &gt; 180,IF(C3&gt;=0, C3-360, C3+360), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <f t="shared" si="1"/>
         <v>Right</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F7" si="3">ABS(D3/180)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -497,20 +504,20 @@
         <v>20</v>
       </c>
       <c r="C4" s="1">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="D4" s="1">
         <f t="shared" si="2"/>
-        <v>270</v>
-      </c>
-      <c r="D4" s="1">
+        <v>-90</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Left</v>
+      </c>
+      <c r="F4" s="1">
         <f t="shared" si="3"/>
-        <v>270</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="F4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Left</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -521,20 +528,20 @@
         <v>290</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>-270</v>
+      </c>
+      <c r="D5" s="1">
         <f t="shared" si="2"/>
-        <v>-270</v>
-      </c>
-      <c r="D5" s="1">
+        <v>90</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Right</v>
+      </c>
+      <c r="F5" s="1">
         <f t="shared" si="3"/>
-        <v>-270</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>-90</v>
-      </c>
-      <c r="F5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Right</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -545,20 +552,20 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f>IF(D6&lt;&gt;0,IF(D6&gt;0,"Right","Left"),IF(A6&gt;B6,"Right","Left"))</f>
+        <v>Right</v>
+      </c>
+      <c r="F6" s="1">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="E6" s="1">
-        <f>IF(ABS(D6) &gt; 180,IF(D6&gt;=0, D6-180, D6+180), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Right</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -569,20 +576,190 @@
         <v>20</v>
       </c>
       <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" si="2"/>
-        <v>-20</v>
-      </c>
-      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Left</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="3"/>
-        <v>-20</v>
-      </c>
-      <c r="E7" s="1">
-        <f>IF(ABS(D7) &gt; 180,IF(D7&gt;=0, D7-180, D7+180), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="str">
-        <f>IF(E7&lt;&gt;0,IF(E7&gt;0,"Left","Right"),IF(A7&gt;B7,"Right","Left"))</f>
-        <v>Left</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>180</v>
+      </c>
+      <c r="B14" s="1">
+        <f>ABS(A14/180)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>170</v>
+      </c>
+      <c r="B15" s="1">
+        <f>ABS(A15/180)</f>
+        <v>0.94444444444444442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>160</v>
+      </c>
+      <c r="B16" s="1">
+        <f>ABS(A16/180)</f>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>150</v>
+      </c>
+      <c r="B17" s="1">
+        <f>ABS(A17/180)</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>140</v>
+      </c>
+      <c r="B18" s="1">
+        <f>ABS(A18/180)</f>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>130</v>
+      </c>
+      <c r="B19" s="1">
+        <f>ABS(A19/180)</f>
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>120</v>
+      </c>
+      <c r="B20" s="1">
+        <f>ABS(A20/180)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>110</v>
+      </c>
+      <c r="B21" s="1">
+        <f>ABS(A21/180)</f>
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>100</v>
+      </c>
+      <c r="B22" s="1">
+        <f>ABS(A22/180)</f>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>90</v>
+      </c>
+      <c r="B23" s="1">
+        <f>ABS(A23/180)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>80</v>
+      </c>
+      <c r="B24" s="1">
+        <f>ABS(A24/180)</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1">
+        <f>ABS(A25/180)</f>
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>60</v>
+      </c>
+      <c r="B26" s="1">
+        <f>ABS(A26/180)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1">
+        <f>ABS(A27/180)</f>
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1">
+        <f>ABS(A28/180)</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1">
+        <f>ABS(A29/180)</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>20</v>
+      </c>
+      <c r="B30" s="1">
+        <f>ABS(A30/180)</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>10</v>
+      </c>
+      <c r="B31" s="1">
+        <f>ABS(A31/180)</f>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
   </sheetData>
